--- a/posesiones/1479714.xlsx
+++ b/posesiones/1479714.xlsx
@@ -1841,10 +1841,10 @@
         <v>1</v>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1885,7 +1885,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -1935,7 +1935,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -1985,7 +1985,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -2035,7 +2035,7 @@
         <v>1</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R7">
         <v>4</v>
@@ -2088,7 +2088,7 @@
         <v>1</v>
       </c>
       <c r="Q8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R8">
         <v>14</v>
@@ -2138,7 +2138,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -2188,7 +2188,7 @@
         <v>1</v>
       </c>
       <c r="Q10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R10">
         <v>18</v>
@@ -2238,7 +2238,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -2288,7 +2288,7 @@
         <v>1</v>
       </c>
       <c r="Q12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R12">
         <v>4</v>
@@ -2341,7 +2341,7 @@
         <v>1</v>
       </c>
       <c r="Q13">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R13">
         <v>9</v>
@@ -2391,7 +2391,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -2438,7 +2438,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -2485,7 +2485,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -2532,7 +2532,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -2585,7 +2585,7 @@
         <v>1</v>
       </c>
       <c r="Q18">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R18">
         <v>13</v>
@@ -2635,7 +2635,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -2685,7 +2685,7 @@
         <v>1</v>
       </c>
       <c r="Q20">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R20">
         <v>14</v>
@@ -2738,7 +2738,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -2788,7 +2788,7 @@
         <v>1</v>
       </c>
       <c r="Q22">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R22">
         <v>17</v>
@@ -2838,7 +2838,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -2888,7 +2888,7 @@
         <v>1</v>
       </c>
       <c r="Q24">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R24">
         <v>11</v>
@@ -2938,7 +2938,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:18">
@@ -2988,7 +2988,7 @@
         <v>1</v>
       </c>
       <c r="Q26">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R26">
         <v>14</v>
@@ -3041,7 +3041,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:18">
@@ -3091,7 +3091,7 @@
         <v>1</v>
       </c>
       <c r="Q28">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R28">
         <v>20</v>
@@ -3144,7 +3144,7 @@
         <v>1</v>
       </c>
       <c r="Q29">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R29">
         <v>13</v>
@@ -3194,7 +3194,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:18">
@@ -3244,7 +3244,7 @@
         <v>1</v>
       </c>
       <c r="Q31">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R31">
         <v>16</v>
@@ -3297,7 +3297,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:18">
@@ -3347,7 +3347,7 @@
         <v>1</v>
       </c>
       <c r="Q33">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R33">
         <v>11</v>
@@ -3397,7 +3397,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35" spans="1:18">
@@ -3447,7 +3447,7 @@
         <v>1</v>
       </c>
       <c r="Q35">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R35">
         <v>27</v>
@@ -3500,7 +3500,7 @@
         <v>1</v>
       </c>
       <c r="Q36">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R36">
         <v>26</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" spans="1:18">
@@ -3600,7 +3600,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" spans="1:18">
@@ -3647,7 +3647,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" spans="1:18">
@@ -3694,7 +3694,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" spans="1:18">
@@ -3744,7 +3744,7 @@
         <v>1</v>
       </c>
       <c r="Q41">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R41">
         <v>9</v>
@@ -3797,7 +3797,7 @@
         <v>1</v>
       </c>
       <c r="Q42">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R42">
         <v>12</v>
@@ -3850,7 +3850,7 @@
         <v>1</v>
       </c>
       <c r="Q43">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R43">
         <v>20</v>
@@ -3900,7 +3900,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="45" spans="1:18">
@@ -3947,7 +3947,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="46" spans="1:18">
@@ -3997,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="47" spans="1:18">
@@ -4044,7 +4044,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="48" spans="1:18">
@@ -4094,7 +4094,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="49" spans="1:18">
@@ -4144,7 +4144,7 @@
         <v>1</v>
       </c>
       <c r="Q49">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R49">
         <v>30</v>
@@ -4197,7 +4197,7 @@
         <v>1</v>
       </c>
       <c r="Q50">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R50">
         <v>11</v>
@@ -4250,7 +4250,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" spans="1:18">
@@ -4300,7 +4300,7 @@
         <v>1</v>
       </c>
       <c r="Q52">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R52">
         <v>13</v>
@@ -4350,7 +4350,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="54" spans="1:18">
@@ -4394,7 +4394,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="55" spans="1:18">
@@ -4441,7 +4441,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="56" spans="1:18">
@@ -4488,7 +4488,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="57" spans="1:18">
@@ -4535,7 +4535,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="58" spans="1:18">
@@ -4585,7 +4585,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="59" spans="1:18">
@@ -4635,7 +4635,7 @@
         <v>1</v>
       </c>
       <c r="Q59">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R59">
         <v>29</v>
@@ -4688,7 +4688,7 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="61" spans="1:18">
@@ -4738,7 +4738,7 @@
         <v>1</v>
       </c>
       <c r="Q61">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R61">
         <v>10</v>
@@ -4791,7 +4791,7 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="63" spans="1:18">
@@ -4838,7 +4838,7 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="64" spans="1:18">
@@ -4885,7 +4885,7 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="65" spans="1:18">
@@ -4932,7 +4932,7 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="66" spans="1:18">
@@ -4979,7 +4979,7 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="67" spans="1:18">
@@ -5026,7 +5026,7 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="68" spans="1:18">
@@ -5076,7 +5076,7 @@
         <v>1</v>
       </c>
       <c r="Q68">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R68">
         <v>11</v>
@@ -5129,7 +5129,7 @@
         <v>1</v>
       </c>
       <c r="Q69">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R69">
         <v>20</v>
@@ -5182,7 +5182,7 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="71" spans="1:18">
@@ -5232,7 +5232,7 @@
         <v>1</v>
       </c>
       <c r="Q71">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R71">
         <v>15</v>
@@ -5282,7 +5282,7 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="73" spans="1:18">
@@ -5332,7 +5332,7 @@
         <v>1</v>
       </c>
       <c r="Q73">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R73">
         <v>26</v>
@@ -5385,7 +5385,7 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="75" spans="1:18">
@@ -5435,7 +5435,7 @@
         <v>1</v>
       </c>
       <c r="Q75">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R75">
         <v>11</v>
@@ -5482,7 +5482,7 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="77" spans="1:18">
@@ -5529,7 +5529,7 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="78" spans="1:18">
@@ -5576,7 +5576,7 @@
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="79" spans="1:18">
@@ -5626,7 +5626,7 @@
         <v>1</v>
       </c>
       <c r="Q79">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R79">
         <v>20</v>
@@ -5679,7 +5679,7 @@
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="81" spans="1:18">
@@ -5729,7 +5729,7 @@
         <v>1</v>
       </c>
       <c r="Q81">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R81">
         <v>7</v>
@@ -5779,7 +5779,7 @@
         <v>0</v>
       </c>
       <c r="Q82">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="83" spans="1:18">
@@ -5826,7 +5826,7 @@
         <v>0</v>
       </c>
       <c r="Q83">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="84" spans="1:18">
@@ -5873,7 +5873,7 @@
         <v>0</v>
       </c>
       <c r="Q84">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="85" spans="1:18">
@@ -5920,7 +5920,7 @@
         <v>0</v>
       </c>
       <c r="Q85">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="86" spans="1:18">
@@ -5967,7 +5967,7 @@
         <v>0</v>
       </c>
       <c r="Q86">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="87" spans="1:18">
@@ -6014,7 +6014,7 @@
         <v>0</v>
       </c>
       <c r="Q87">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="88" spans="1:18">
@@ -6061,7 +6061,7 @@
         <v>0</v>
       </c>
       <c r="Q88">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="89" spans="1:18">
@@ -6108,7 +6108,7 @@
         <v>0</v>
       </c>
       <c r="Q89">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="90" spans="1:18">
@@ -6155,7 +6155,7 @@
         <v>0</v>
       </c>
       <c r="Q90">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="91" spans="1:18">
@@ -6205,7 +6205,7 @@
         <v>1</v>
       </c>
       <c r="Q91">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R91">
         <v>19</v>
@@ -6258,7 +6258,7 @@
         <v>1</v>
       </c>
       <c r="Q92">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R92">
         <v>24</v>
@@ -6308,7 +6308,7 @@
         <v>0</v>
       </c>
       <c r="Q93">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="94" spans="1:18">
@@ -6355,7 +6355,7 @@
         <v>0</v>
       </c>
       <c r="Q94">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="95" spans="1:18">
@@ -6402,7 +6402,7 @@
         <v>0</v>
       </c>
       <c r="Q95">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="96" spans="1:18">
@@ -6452,7 +6452,7 @@
         <v>1</v>
       </c>
       <c r="Q96">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R96">
         <v>19</v>
@@ -6502,7 +6502,7 @@
         <v>0</v>
       </c>
       <c r="Q97">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="98" spans="1:18">
@@ -6552,7 +6552,7 @@
         <v>1</v>
       </c>
       <c r="Q98">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R98">
         <v>8</v>
@@ -6602,7 +6602,7 @@
         <v>0</v>
       </c>
       <c r="Q99">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="100" spans="1:18">
@@ -6652,7 +6652,7 @@
         <v>1</v>
       </c>
       <c r="Q100">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R100">
         <v>15</v>
@@ -6702,7 +6702,7 @@
         <v>0</v>
       </c>
       <c r="Q101">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="102" spans="1:18">
@@ -6752,7 +6752,7 @@
         <v>1</v>
       </c>
       <c r="Q102">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R102">
         <v>3</v>
@@ -6802,7 +6802,7 @@
         <v>0</v>
       </c>
       <c r="Q103">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="104" spans="1:18">
@@ -6849,7 +6849,7 @@
         <v>0</v>
       </c>
       <c r="Q104">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="105" spans="1:18">
@@ -6896,7 +6896,7 @@
         <v>0</v>
       </c>
       <c r="Q105">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="106" spans="1:18">
@@ -6943,7 +6943,7 @@
         <v>0</v>
       </c>
       <c r="Q106">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="107" spans="1:18">
@@ -6990,7 +6990,7 @@
         <v>0</v>
       </c>
       <c r="Q107">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="108" spans="1:18">
@@ -7037,7 +7037,7 @@
         <v>0</v>
       </c>
       <c r="Q108">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="109" spans="1:18">
@@ -7084,7 +7084,7 @@
         <v>0</v>
       </c>
       <c r="Q109">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="110" spans="1:18">
@@ -7134,7 +7134,7 @@
         <v>1</v>
       </c>
       <c r="Q110">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R110">
         <v>0</v>
@@ -7187,7 +7187,7 @@
         <v>1</v>
       </c>
       <c r="Q111">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="R111">
         <v>11</v>
@@ -7237,7 +7237,7 @@
         <v>0</v>
       </c>
       <c r="Q112">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="113" spans="1:18">
@@ -7287,7 +7287,7 @@
         <v>1</v>
       </c>
       <c r="Q113">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R113">
         <v>24</v>
@@ -7340,7 +7340,7 @@
         <v>1</v>
       </c>
       <c r="Q114">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R114">
         <v>0</v>
@@ -7390,7 +7390,7 @@
         <v>0</v>
       </c>
       <c r="Q115">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="116" spans="1:18">
@@ -7440,7 +7440,7 @@
         <v>1</v>
       </c>
       <c r="Q116">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R116">
         <v>0</v>
@@ -7493,7 +7493,7 @@
         <v>1</v>
       </c>
       <c r="Q117">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R117">
         <v>0</v>
@@ -7537,10 +7537,10 @@
         <v>1</v>
       </c>
       <c r="P118" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q118">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="119" spans="1:18">
@@ -7581,10 +7581,10 @@
         <v>1</v>
       </c>
       <c r="P119" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q119">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="120" spans="1:18">
@@ -7631,7 +7631,7 @@
         <v>0</v>
       </c>
       <c r="Q120">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="121" spans="1:18">
@@ -7684,7 +7684,7 @@
         <v>1</v>
       </c>
       <c r="Q121">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="R121">
         <v>1</v>
@@ -7734,7 +7734,7 @@
         <v>0</v>
       </c>
       <c r="Q122">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="123" spans="1:18">
@@ -7781,7 +7781,7 @@
         <v>0</v>
       </c>
       <c r="Q123">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="124" spans="1:18">
@@ -7828,7 +7828,7 @@
         <v>1</v>
       </c>
       <c r="Q124">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="R124">
         <v>17</v>
@@ -7878,7 +7878,7 @@
         <v>0</v>
       </c>
       <c r="Q125">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="126" spans="1:18">
@@ -7925,7 +7925,7 @@
         <v>0</v>
       </c>
       <c r="Q126">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="127" spans="1:18">
@@ -7972,7 +7972,7 @@
         <v>0</v>
       </c>
       <c r="Q127">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="128" spans="1:18">
@@ -8019,7 +8019,7 @@
         <v>0</v>
       </c>
       <c r="Q128">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="129" spans="1:18">
@@ -8066,7 +8066,7 @@
         <v>0</v>
       </c>
       <c r="Q129">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="130" spans="1:18">
@@ -8113,7 +8113,7 @@
         <v>0</v>
       </c>
       <c r="Q130">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="131" spans="1:18">
@@ -8163,7 +8163,7 @@
         <v>1</v>
       </c>
       <c r="Q131">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="R131">
         <v>32</v>
@@ -8213,7 +8213,7 @@
         <v>0</v>
       </c>
       <c r="Q132">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="133" spans="1:18">
@@ -8263,7 +8263,7 @@
         <v>1</v>
       </c>
       <c r="Q133">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="R133">
         <v>19</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q134">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="135" spans="1:18">
@@ -8363,7 +8363,7 @@
         <v>1</v>
       </c>
       <c r="Q135">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="R135">
         <v>14</v>
@@ -8416,7 +8416,7 @@
         <v>0</v>
       </c>
       <c r="Q136">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="137" spans="1:18">
@@ -8466,7 +8466,7 @@
         <v>1</v>
       </c>
       <c r="Q137">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="R137">
         <v>5</v>
@@ -8516,7 +8516,7 @@
         <v>0</v>
       </c>
       <c r="Q138">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="139" spans="1:18">
@@ -8566,7 +8566,7 @@
         <v>1</v>
       </c>
       <c r="Q139">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="R139">
         <v>23</v>
@@ -8616,7 +8616,7 @@
         <v>0</v>
       </c>
       <c r="Q140">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="141" spans="1:18">
@@ -8663,7 +8663,7 @@
         <v>0</v>
       </c>
       <c r="Q141">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="142" spans="1:18">
@@ -8710,7 +8710,7 @@
         <v>0</v>
       </c>
       <c r="Q142">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="143" spans="1:18">
@@ -8757,7 +8757,7 @@
         <v>0</v>
       </c>
       <c r="Q143">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="144" spans="1:18">
@@ -8807,7 +8807,7 @@
         <v>1</v>
       </c>
       <c r="Q144">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="R144">
         <v>0</v>
@@ -8860,7 +8860,7 @@
         <v>1</v>
       </c>
       <c r="Q145">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="R145">
         <v>12</v>
@@ -8913,7 +8913,7 @@
         <v>0</v>
       </c>
       <c r="Q146">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="147" spans="1:18">
@@ -8963,7 +8963,7 @@
         <v>1</v>
       </c>
       <c r="Q147">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="R147">
         <v>24</v>
@@ -9013,7 +9013,7 @@
         <v>0</v>
       </c>
       <c r="Q148">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="149" spans="1:18">
@@ -9060,7 +9060,7 @@
         <v>0</v>
       </c>
       <c r="Q149">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="150" spans="1:18">
@@ -9110,7 +9110,7 @@
         <v>1</v>
       </c>
       <c r="Q150">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="R150">
         <v>17</v>
@@ -9160,7 +9160,7 @@
         <v>0</v>
       </c>
       <c r="Q151">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="152" spans="1:18">
@@ -9210,7 +9210,7 @@
         <v>1</v>
       </c>
       <c r="Q152">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="R152">
         <v>24</v>
@@ -9263,7 +9263,7 @@
         <v>1</v>
       </c>
       <c r="Q153">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="R153">
         <v>28</v>
@@ -9316,7 +9316,7 @@
         <v>0</v>
       </c>
       <c r="Q154">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="155" spans="1:18">
@@ -9363,7 +9363,7 @@
         <v>0</v>
       </c>
       <c r="Q155">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="156" spans="1:18">
@@ -9410,7 +9410,7 @@
         <v>0</v>
       </c>
       <c r="Q156">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="157" spans="1:18">
@@ -9457,7 +9457,7 @@
         <v>0</v>
       </c>
       <c r="Q157">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="158" spans="1:18">
@@ -9504,7 +9504,7 @@
         <v>0</v>
       </c>
       <c r="Q158">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="159" spans="1:18">
@@ -9554,7 +9554,7 @@
         <v>1</v>
       </c>
       <c r="Q159">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="R159">
         <v>11</v>
@@ -9604,7 +9604,7 @@
         <v>0</v>
       </c>
       <c r="Q160">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="161" spans="1:18">
@@ -9651,7 +9651,7 @@
         <v>0</v>
       </c>
       <c r="Q161">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="162" spans="1:18">
@@ -9698,7 +9698,7 @@
         <v>0</v>
       </c>
       <c r="Q162">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="163" spans="1:18">
@@ -9748,7 +9748,7 @@
         <v>1</v>
       </c>
       <c r="Q163">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="R163">
         <v>21</v>
@@ -9801,7 +9801,7 @@
         <v>0</v>
       </c>
       <c r="Q164">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="165" spans="1:18">
@@ -9848,7 +9848,7 @@
         <v>0</v>
       </c>
       <c r="Q165">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="166" spans="1:18">
@@ -9895,7 +9895,7 @@
         <v>0</v>
       </c>
       <c r="Q166">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="167" spans="1:18">
@@ -9942,7 +9942,7 @@
         <v>0</v>
       </c>
       <c r="Q167">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="168" spans="1:18">
@@ -9989,7 +9989,7 @@
         <v>0</v>
       </c>
       <c r="Q168">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="169" spans="1:18">
@@ -10036,7 +10036,7 @@
         <v>0</v>
       </c>
       <c r="Q169">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="170" spans="1:18">
@@ -10086,7 +10086,7 @@
         <v>1</v>
       </c>
       <c r="Q170">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="R170">
         <v>8</v>
@@ -10139,7 +10139,7 @@
         <v>0</v>
       </c>
       <c r="Q171">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="172" spans="1:18">
@@ -10189,7 +10189,7 @@
         <v>1</v>
       </c>
       <c r="Q172">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="R172">
         <v>21</v>
@@ -10239,7 +10239,7 @@
         <v>0</v>
       </c>
       <c r="Q173">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="174" spans="1:18">
@@ -10289,7 +10289,7 @@
         <v>1</v>
       </c>
       <c r="Q174">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="R174">
         <v>15</v>
@@ -10342,7 +10342,7 @@
         <v>1</v>
       </c>
       <c r="Q175">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="R175">
         <v>20</v>
@@ -10395,7 +10395,7 @@
         <v>1</v>
       </c>
       <c r="Q176">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="R176">
         <v>18</v>
@@ -10448,7 +10448,7 @@
         <v>1</v>
       </c>
       <c r="Q177">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="R177">
         <v>12</v>
@@ -10495,7 +10495,7 @@
         <v>0</v>
       </c>
       <c r="Q178">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="179" spans="1:18">
@@ -10545,7 +10545,7 @@
         <v>1</v>
       </c>
       <c r="Q179">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="R179">
         <v>14</v>
@@ -10595,7 +10595,7 @@
         <v>0</v>
       </c>
       <c r="Q180">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="181" spans="1:18">
@@ -10642,7 +10642,7 @@
         <v>0</v>
       </c>
       <c r="Q181">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="182" spans="1:18">
@@ -10692,7 +10692,7 @@
         <v>0</v>
       </c>
       <c r="Q182">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="183" spans="1:18">
@@ -10739,7 +10739,7 @@
         <v>0</v>
       </c>
       <c r="Q183">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="184" spans="1:18">
@@ -10789,7 +10789,7 @@
         <v>0</v>
       </c>
       <c r="Q184">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="185" spans="1:18">
@@ -10839,7 +10839,7 @@
         <v>1</v>
       </c>
       <c r="Q185">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R185">
         <v>12</v>
@@ -10889,7 +10889,7 @@
         <v>0</v>
       </c>
       <c r="Q186">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="187" spans="1:18">
@@ -10936,7 +10936,7 @@
         <v>0</v>
       </c>
       <c r="Q187">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="188" spans="1:18">
@@ -10983,7 +10983,7 @@
         <v>0</v>
       </c>
       <c r="Q188">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="189" spans="1:18">
@@ -11030,7 +11030,7 @@
         <v>0</v>
       </c>
       <c r="Q189">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="190" spans="1:18">
@@ -11080,7 +11080,7 @@
         <v>1</v>
       </c>
       <c r="Q190">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="R190">
         <v>0</v>
@@ -11133,7 +11133,7 @@
         <v>1</v>
       </c>
       <c r="Q191">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="R191">
         <v>10</v>
@@ -11186,7 +11186,7 @@
         <v>1</v>
       </c>
       <c r="Q192">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="R192">
         <v>18</v>
@@ -11239,7 +11239,7 @@
         <v>1</v>
       </c>
       <c r="Q193">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="R193">
         <v>15</v>
@@ -11289,7 +11289,7 @@
         <v>0</v>
       </c>
       <c r="Q194">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="195" spans="1:18">
@@ -11339,7 +11339,7 @@
         <v>0</v>
       </c>
       <c r="Q195">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="196" spans="1:18">
@@ -11389,7 +11389,7 @@
         <v>1</v>
       </c>
       <c r="Q196">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="R196">
         <v>19</v>
@@ -11442,7 +11442,7 @@
         <v>0</v>
       </c>
       <c r="Q197">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="198" spans="1:18">
@@ -11492,7 +11492,7 @@
         <v>1</v>
       </c>
       <c r="Q198">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="R198">
         <v>8</v>
@@ -11545,7 +11545,7 @@
         <v>0</v>
       </c>
       <c r="Q199">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="200" spans="1:18">
@@ -11595,7 +11595,7 @@
         <v>1</v>
       </c>
       <c r="Q200">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="R200">
         <v>7</v>
@@ -11645,7 +11645,7 @@
         <v>0</v>
       </c>
       <c r="Q201">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="202" spans="1:18">
@@ -11692,7 +11692,7 @@
         <v>0</v>
       </c>
       <c r="Q202">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="203" spans="1:18">
@@ -11739,7 +11739,7 @@
         <v>0</v>
       </c>
       <c r="Q203">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="204" spans="1:18">
@@ -11786,7 +11786,7 @@
         <v>0</v>
       </c>
       <c r="Q204">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="205" spans="1:18">
@@ -11833,7 +11833,7 @@
         <v>0</v>
       </c>
       <c r="Q205">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="206" spans="1:18">
@@ -11880,7 +11880,7 @@
         <v>0</v>
       </c>
       <c r="Q206">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="207" spans="1:18">
@@ -11933,7 +11933,7 @@
         <v>1</v>
       </c>
       <c r="Q207">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="R207">
         <v>6</v>
@@ -11983,7 +11983,7 @@
         <v>0</v>
       </c>
       <c r="Q208">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="209" spans="1:18">
@@ -12030,7 +12030,7 @@
         <v>0</v>
       </c>
       <c r="Q209">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="210" spans="1:18">
@@ -12077,7 +12077,7 @@
         <v>0</v>
       </c>
       <c r="Q210">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="211" spans="1:18">
@@ -12124,7 +12124,7 @@
         <v>0</v>
       </c>
       <c r="Q211">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="212" spans="1:18">
@@ -12171,7 +12171,7 @@
         <v>0</v>
       </c>
       <c r="Q212">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="213" spans="1:18">
@@ -12218,7 +12218,7 @@
         <v>0</v>
       </c>
       <c r="Q213">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="214" spans="1:18">
@@ -12265,7 +12265,7 @@
         <v>0</v>
       </c>
       <c r="Q214">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="215" spans="1:18">
@@ -12312,7 +12312,7 @@
         <v>0</v>
       </c>
       <c r="Q215">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="216" spans="1:18">
@@ -12362,7 +12362,7 @@
         <v>1</v>
       </c>
       <c r="Q216">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="R216">
         <v>22</v>
@@ -12415,7 +12415,7 @@
         <v>1</v>
       </c>
       <c r="Q217">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="R217">
         <v>29</v>
@@ -12468,7 +12468,7 @@
         <v>1</v>
       </c>
       <c r="Q218">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="R218">
         <v>16</v>
@@ -12521,7 +12521,7 @@
         <v>1</v>
       </c>
       <c r="Q219">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="R219">
         <v>20</v>
@@ -12571,7 +12571,7 @@
         <v>0</v>
       </c>
       <c r="Q220">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="221" spans="1:18">
@@ -12618,7 +12618,7 @@
         <v>0</v>
       </c>
       <c r="Q221">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="222" spans="1:18">
@@ -12668,7 +12668,7 @@
         <v>0</v>
       </c>
       <c r="Q222">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="223" spans="1:18">
@@ -12718,7 +12718,7 @@
         <v>1</v>
       </c>
       <c r="Q223">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="R223">
         <v>24</v>
@@ -12768,7 +12768,7 @@
         <v>0</v>
       </c>
       <c r="Q224">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="225" spans="1:18">
@@ -12815,7 +12815,7 @@
         <v>0</v>
       </c>
       <c r="Q225">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="226" spans="1:18">
@@ -12862,7 +12862,7 @@
         <v>0</v>
       </c>
       <c r="Q226">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="227" spans="1:18">
@@ -12909,7 +12909,7 @@
         <v>0</v>
       </c>
       <c r="Q227">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="228" spans="1:18">
@@ -12956,7 +12956,7 @@
         <v>0</v>
       </c>
       <c r="Q228">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="229" spans="1:18">
@@ -13003,7 +13003,7 @@
         <v>0</v>
       </c>
       <c r="Q229">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="230" spans="1:18">
@@ -13050,7 +13050,7 @@
         <v>0</v>
       </c>
       <c r="Q230">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="231" spans="1:18">
@@ -13097,7 +13097,7 @@
         <v>0</v>
       </c>
       <c r="Q231">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="232" spans="1:18">
@@ -13147,7 +13147,7 @@
         <v>1</v>
       </c>
       <c r="Q232">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="R232">
         <v>0</v>
@@ -13200,7 +13200,7 @@
         <v>0</v>
       </c>
       <c r="Q233">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="234" spans="1:18">
@@ -13250,7 +13250,7 @@
         <v>1</v>
       </c>
       <c r="Q234">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="R234">
         <v>20</v>
@@ -13303,7 +13303,7 @@
         <v>1</v>
       </c>
       <c r="Q235">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="R235">
         <v>15</v>
@@ -13347,10 +13347,10 @@
         <v>1</v>
       </c>
       <c r="P236" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q236">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="237" spans="1:18">
@@ -13397,7 +13397,7 @@
         <v>0</v>
       </c>
       <c r="Q237">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="238" spans="1:18">
@@ -13444,7 +13444,7 @@
         <v>0</v>
       </c>
       <c r="Q238">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="239" spans="1:18">
@@ -13491,7 +13491,7 @@
         <v>0</v>
       </c>
       <c r="Q239">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="240" spans="1:18">
@@ -13538,7 +13538,7 @@
         <v>0</v>
       </c>
       <c r="Q240">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="241" spans="1:18">
@@ -13585,7 +13585,7 @@
         <v>0</v>
       </c>
       <c r="Q241">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="242" spans="1:18">
@@ -13632,7 +13632,7 @@
         <v>0</v>
       </c>
       <c r="Q242">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="243" spans="1:18">
@@ -13673,10 +13673,10 @@
         <v>1</v>
       </c>
       <c r="P243" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q243">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="244" spans="1:18">
@@ -13726,7 +13726,7 @@
         <v>1</v>
       </c>
       <c r="Q244">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="R244">
         <v>15</v>
@@ -13779,7 +13779,7 @@
         <v>0</v>
       </c>
       <c r="Q245">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="246" spans="1:18">
@@ -13829,7 +13829,7 @@
         <v>1</v>
       </c>
       <c r="Q246">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="R246">
         <v>12</v>
@@ -13879,7 +13879,7 @@
         <v>0</v>
       </c>
       <c r="Q247">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="248" spans="1:18">
@@ -13929,7 +13929,7 @@
         <v>1</v>
       </c>
       <c r="Q248">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="R248">
         <v>17</v>
@@ -13982,7 +13982,7 @@
         <v>1</v>
       </c>
       <c r="Q249">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="R249">
         <v>12</v>
@@ -14035,7 +14035,7 @@
         <v>0</v>
       </c>
       <c r="Q250">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="251" spans="1:18">
@@ -14085,7 +14085,7 @@
         <v>1</v>
       </c>
       <c r="Q251">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="R251">
         <v>18</v>
@@ -14138,7 +14138,7 @@
         <v>0</v>
       </c>
       <c r="Q252">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="253" spans="1:18">
@@ -14188,7 +14188,7 @@
         <v>1</v>
       </c>
       <c r="Q253">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="R253">
         <v>10</v>
@@ -14238,7 +14238,7 @@
         <v>0</v>
       </c>
       <c r="Q254">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="255" spans="1:18">
@@ -14288,7 +14288,7 @@
         <v>1</v>
       </c>
       <c r="Q255">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="R255">
         <v>6</v>
@@ -14338,7 +14338,7 @@
         <v>0</v>
       </c>
       <c r="Q256">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="257" spans="1:18">
@@ -14388,7 +14388,7 @@
         <v>1</v>
       </c>
       <c r="Q257">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="R257">
         <v>13</v>
@@ -14441,7 +14441,7 @@
         <v>0</v>
       </c>
       <c r="Q258">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="259" spans="1:18">
@@ -14488,7 +14488,7 @@
         <v>0</v>
       </c>
       <c r="Q259">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="260" spans="1:18">
@@ -14538,7 +14538,7 @@
         <v>0</v>
       </c>
       <c r="Q260">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="261" spans="1:18">
@@ -14588,7 +14588,7 @@
         <v>1</v>
       </c>
       <c r="Q261">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="R261">
         <v>22</v>
@@ -14641,7 +14641,7 @@
         <v>0</v>
       </c>
       <c r="Q262">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="263" spans="1:18">
@@ -14688,7 +14688,7 @@
         <v>0</v>
       </c>
       <c r="Q263">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="264" spans="1:18">
@@ -14735,7 +14735,7 @@
         <v>0</v>
       </c>
       <c r="Q264">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="265" spans="1:18">
@@ -14782,7 +14782,7 @@
         <v>0</v>
       </c>
       <c r="Q265">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="266" spans="1:18">
@@ -14829,7 +14829,7 @@
         <v>0</v>
       </c>
       <c r="Q266">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="267" spans="1:18">
@@ -14879,7 +14879,7 @@
         <v>1</v>
       </c>
       <c r="Q267">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="R267">
         <v>15</v>
@@ -14932,7 +14932,7 @@
         <v>0</v>
       </c>
       <c r="Q268">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="269" spans="1:18">
@@ -14982,7 +14982,7 @@
         <v>1</v>
       </c>
       <c r="Q269">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="R269">
         <v>14</v>
@@ -15035,7 +15035,7 @@
         <v>0</v>
       </c>
       <c r="Q270">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="271" spans="1:18">
@@ -15085,7 +15085,7 @@
         <v>1</v>
       </c>
       <c r="Q271">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="R271">
         <v>10</v>
@@ -15138,7 +15138,7 @@
         <v>0</v>
       </c>
       <c r="Q272">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="273" spans="1:18">
@@ -15188,7 +15188,7 @@
         <v>1</v>
       </c>
       <c r="Q273">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="R273">
         <v>19</v>
@@ -15241,7 +15241,7 @@
         <v>0</v>
       </c>
       <c r="Q274">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="275" spans="1:18">
@@ -15288,7 +15288,7 @@
         <v>0</v>
       </c>
       <c r="Q275">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="276" spans="1:18">
@@ -15335,7 +15335,7 @@
         <v>0</v>
       </c>
       <c r="Q276">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="277" spans="1:18">
@@ -15382,7 +15382,7 @@
         <v>0</v>
       </c>
       <c r="Q277">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="278" spans="1:18">
@@ -15432,7 +15432,7 @@
         <v>1</v>
       </c>
       <c r="Q278">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="R278">
         <v>13</v>
@@ -15482,7 +15482,7 @@
         <v>0</v>
       </c>
       <c r="Q279">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="280" spans="1:18">
@@ -15532,7 +15532,7 @@
         <v>0</v>
       </c>
       <c r="Q280">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="281" spans="1:18">
@@ -15582,7 +15582,7 @@
         <v>1</v>
       </c>
       <c r="Q281">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="R281">
         <v>25</v>
@@ -15635,7 +15635,7 @@
         <v>0</v>
       </c>
       <c r="Q282">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="283" spans="1:18">
@@ -15685,7 +15685,7 @@
         <v>1</v>
       </c>
       <c r="Q283">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="R283">
         <v>3</v>
@@ -15735,7 +15735,7 @@
         <v>0</v>
       </c>
       <c r="Q284">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="285" spans="1:18">
@@ -15785,7 +15785,7 @@
         <v>0</v>
       </c>
       <c r="Q285">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="286" spans="1:18">
@@ -15835,7 +15835,7 @@
         <v>1</v>
       </c>
       <c r="Q286">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="R286">
         <v>6</v>
@@ -15885,7 +15885,7 @@
         <v>0</v>
       </c>
       <c r="Q287">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="288" spans="1:18">
@@ -15932,7 +15932,7 @@
         <v>0</v>
       </c>
       <c r="Q288">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="289" spans="1:18">
@@ -15979,7 +15979,7 @@
         <v>0</v>
       </c>
       <c r="Q289">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="290" spans="1:18">
@@ -16029,7 +16029,7 @@
         <v>1</v>
       </c>
       <c r="Q290">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="R290">
         <v>14</v>
@@ -16082,7 +16082,7 @@
         <v>0</v>
       </c>
       <c r="Q291">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="292" spans="1:18">
@@ -16129,7 +16129,7 @@
         <v>0</v>
       </c>
       <c r="Q292">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="293" spans="1:18">
@@ -16176,7 +16176,7 @@
         <v>0</v>
       </c>
       <c r="Q293">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="294" spans="1:18">
@@ -16226,7 +16226,7 @@
         <v>1</v>
       </c>
       <c r="Q294">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="R294">
         <v>11</v>
@@ -16276,7 +16276,7 @@
         <v>0</v>
       </c>
       <c r="Q295">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="296" spans="1:18">
@@ -16323,7 +16323,7 @@
         <v>0</v>
       </c>
       <c r="Q296">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="297" spans="1:18">
@@ -16370,7 +16370,7 @@
         <v>0</v>
       </c>
       <c r="Q297">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="298" spans="1:18">
@@ -16420,7 +16420,7 @@
         <v>1</v>
       </c>
       <c r="Q298">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="R298">
         <v>23</v>
@@ -16470,7 +16470,7 @@
         <v>0</v>
       </c>
       <c r="Q299">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="300" spans="1:18">
@@ -16517,7 +16517,7 @@
         <v>0</v>
       </c>
       <c r="Q300">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="301" spans="1:18">
@@ -16564,7 +16564,7 @@
         <v>0</v>
       </c>
       <c r="Q301">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="302" spans="1:18">
@@ -16614,7 +16614,7 @@
         <v>1</v>
       </c>
       <c r="Q302">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="R302">
         <v>24</v>
@@ -16667,7 +16667,7 @@
         <v>0</v>
       </c>
       <c r="Q303">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="304" spans="1:18">
@@ -16717,7 +16717,7 @@
         <v>1</v>
       </c>
       <c r="Q304">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="R304">
         <v>17</v>
@@ -16767,7 +16767,7 @@
         <v>0</v>
       </c>
       <c r="Q305">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="306" spans="1:18">
@@ -16817,7 +16817,7 @@
         <v>1</v>
       </c>
       <c r="Q306">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="R306">
         <v>24</v>
@@ -16870,7 +16870,7 @@
         <v>0</v>
       </c>
       <c r="Q307">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="308" spans="1:18">
@@ -16917,7 +16917,7 @@
         <v>0</v>
       </c>
       <c r="Q308">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="309" spans="1:18">
@@ -16964,7 +16964,7 @@
         <v>0</v>
       </c>
       <c r="Q309">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="310" spans="1:18">
@@ -17014,7 +17014,7 @@
         <v>1</v>
       </c>
       <c r="Q310">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="R310">
         <v>14</v>
@@ -17067,7 +17067,7 @@
         <v>0</v>
       </c>
       <c r="Q311">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="312" spans="1:18">
@@ -17117,7 +17117,7 @@
         <v>1</v>
       </c>
       <c r="Q312">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="R312">
         <v>13</v>
@@ -17167,7 +17167,7 @@
         <v>0</v>
       </c>
       <c r="Q313">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="314" spans="1:18">
@@ -17217,7 +17217,7 @@
         <v>1</v>
       </c>
       <c r="Q314">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="R314">
         <v>24</v>
@@ -17267,7 +17267,7 @@
         <v>0</v>
       </c>
       <c r="Q315">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="316" spans="1:18">
@@ -17314,7 +17314,7 @@
         <v>0</v>
       </c>
       <c r="Q316">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="317" spans="1:18">
@@ -17364,7 +17364,7 @@
         <v>1</v>
       </c>
       <c r="Q317">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="R317">
         <v>26</v>
@@ -17414,7 +17414,7 @@
         <v>0</v>
       </c>
       <c r="Q318">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="319" spans="1:18">
@@ -17461,7 +17461,7 @@
         <v>0</v>
       </c>
       <c r="Q319">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="320" spans="1:18">
@@ -17508,7 +17508,7 @@
         <v>0</v>
       </c>
       <c r="Q320">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="321" spans="1:18">
@@ -17558,7 +17558,7 @@
         <v>1</v>
       </c>
       <c r="Q321">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="R321">
         <v>22</v>
@@ -17611,7 +17611,7 @@
         <v>0</v>
       </c>
       <c r="Q322">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="323" spans="1:18">
@@ -17661,7 +17661,7 @@
         <v>1</v>
       </c>
       <c r="Q323">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="R323">
         <v>9</v>
@@ -17711,7 +17711,7 @@
         <v>1</v>
       </c>
       <c r="Q324">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="R324">
         <v>16</v>
@@ -17761,7 +17761,7 @@
         <v>0</v>
       </c>
       <c r="Q325">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="326" spans="1:18">
@@ -17808,7 +17808,7 @@
         <v>0</v>
       </c>
       <c r="Q326">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="327" spans="1:18">
@@ -17858,7 +17858,7 @@
         <v>1</v>
       </c>
       <c r="Q327">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="R327">
         <v>16</v>
@@ -17908,7 +17908,7 @@
         <v>0</v>
       </c>
       <c r="Q328">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="329" spans="1:18">
@@ -17958,7 +17958,7 @@
         <v>1</v>
       </c>
       <c r="Q329">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="R329">
         <v>17</v>
@@ -18011,7 +18011,7 @@
         <v>1</v>
       </c>
       <c r="Q330">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="R330">
         <v>14</v>
@@ -18061,7 +18061,7 @@
         <v>0</v>
       </c>
       <c r="Q331">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="332" spans="1:18">
@@ -18108,7 +18108,7 @@
         <v>0</v>
       </c>
       <c r="Q332">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="333" spans="1:18">
@@ -18155,7 +18155,7 @@
         <v>0</v>
       </c>
       <c r="Q333">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="334" spans="1:18">
@@ -18202,7 +18202,7 @@
         <v>0</v>
       </c>
       <c r="Q334">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="335" spans="1:18">
@@ -18249,7 +18249,7 @@
         <v>0</v>
       </c>
       <c r="Q335">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="336" spans="1:18">
@@ -18299,7 +18299,7 @@
         <v>1</v>
       </c>
       <c r="Q336">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="R336">
         <v>22</v>
@@ -18352,7 +18352,7 @@
         <v>1</v>
       </c>
       <c r="Q337">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="R337">
         <v>25</v>
@@ -18402,7 +18402,7 @@
         <v>0</v>
       </c>
       <c r="Q338">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="339" spans="1:18">
@@ -18452,7 +18452,7 @@
         <v>0</v>
       </c>
       <c r="Q339">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="340" spans="1:18">
@@ -18499,7 +18499,7 @@
         <v>0</v>
       </c>
       <c r="Q340">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="341" spans="1:18">
@@ -18546,7 +18546,7 @@
         <v>0</v>
       </c>
       <c r="Q341">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="342" spans="1:18">
@@ -18593,7 +18593,7 @@
         <v>0</v>
       </c>
       <c r="Q342">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="343" spans="1:18">
@@ -18640,7 +18640,7 @@
         <v>0</v>
       </c>
       <c r="Q343">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="344" spans="1:18">
@@ -18687,7 +18687,7 @@
         <v>0</v>
       </c>
       <c r="Q344">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="345" spans="1:18">
@@ -18734,7 +18734,7 @@
         <v>0</v>
       </c>
       <c r="Q345">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="346" spans="1:18">
@@ -18784,7 +18784,7 @@
         <v>0</v>
       </c>
       <c r="Q346">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="347" spans="1:18">
@@ -18834,7 +18834,7 @@
         <v>1</v>
       </c>
       <c r="Q347">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="R347">
         <v>26</v>
@@ -18887,7 +18887,7 @@
         <v>1</v>
       </c>
       <c r="Q348">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="R348">
         <v>7</v>
@@ -18931,10 +18931,10 @@
         <v>1</v>
       </c>
       <c r="P349" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q349">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="350" spans="1:18">
@@ -18981,7 +18981,7 @@
         <v>0</v>
       </c>
       <c r="Q350">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="351" spans="1:18">
@@ -19028,7 +19028,7 @@
         <v>0</v>
       </c>
       <c r="Q351">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="352" spans="1:18">
@@ -19069,10 +19069,10 @@
         <v>1</v>
       </c>
       <c r="P352" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q352">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="353" spans="1:18">
@@ -19122,7 +19122,7 @@
         <v>1</v>
       </c>
       <c r="Q353">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="R353">
         <v>15</v>
@@ -19172,7 +19172,7 @@
         <v>0</v>
       </c>
       <c r="Q354">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="355" spans="1:18">
@@ -19222,7 +19222,7 @@
         <v>0</v>
       </c>
       <c r="Q355">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="356" spans="1:18">
@@ -19272,7 +19272,7 @@
         <v>1</v>
       </c>
       <c r="Q356">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="R356">
         <v>22</v>
@@ -19325,7 +19325,7 @@
         <v>0</v>
       </c>
       <c r="Q357">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="358" spans="1:18">
@@ -19372,7 +19372,7 @@
         <v>0</v>
       </c>
       <c r="Q358">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="359" spans="1:18">
@@ -19419,7 +19419,7 @@
         <v>0</v>
       </c>
       <c r="Q359">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="360" spans="1:18">
@@ -19469,7 +19469,7 @@
         <v>1</v>
       </c>
       <c r="Q360">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="R360">
         <v>16</v>
@@ -19519,7 +19519,7 @@
         <v>0</v>
       </c>
       <c r="Q361">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="362" spans="1:18">
@@ -19566,7 +19566,7 @@
         <v>0</v>
       </c>
       <c r="Q362">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="363" spans="1:18">
@@ -19613,7 +19613,7 @@
         <v>0</v>
       </c>
       <c r="Q363">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="364" spans="1:18">
@@ -19660,7 +19660,7 @@
         <v>0</v>
       </c>
       <c r="Q364">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="365" spans="1:18">
@@ -19710,7 +19710,7 @@
         <v>1</v>
       </c>
       <c r="Q365">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="R365">
         <v>10</v>
@@ -19763,7 +19763,7 @@
         <v>1</v>
       </c>
       <c r="Q366">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="R366">
         <v>4</v>
@@ -19813,7 +19813,7 @@
         <v>0</v>
       </c>
       <c r="Q367">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="368" spans="1:18">
@@ -19863,7 +19863,7 @@
         <v>1</v>
       </c>
       <c r="Q368">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="R368">
         <v>6</v>
@@ -19913,7 +19913,7 @@
         <v>0</v>
       </c>
       <c r="Q369">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="370" spans="1:18">
@@ -19960,7 +19960,7 @@
         <v>0</v>
       </c>
       <c r="Q370">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="371" spans="1:18">
@@ -20007,7 +20007,7 @@
         <v>0</v>
       </c>
       <c r="Q371">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="372" spans="1:18">
@@ -20054,7 +20054,7 @@
         <v>0</v>
       </c>
       <c r="Q372">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="373" spans="1:18">
@@ -20101,7 +20101,7 @@
         <v>0</v>
       </c>
       <c r="Q373">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="374" spans="1:18">
@@ -20151,7 +20151,7 @@
         <v>0</v>
       </c>
       <c r="Q374">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="375" spans="1:18">
@@ -20198,7 +20198,7 @@
         <v>0</v>
       </c>
       <c r="Q375">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="376" spans="1:18">
@@ -20245,7 +20245,7 @@
         <v>0</v>
       </c>
       <c r="Q376">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="377" spans="1:18">
@@ -20292,7 +20292,7 @@
         <v>0</v>
       </c>
       <c r="Q377">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="378" spans="1:18">
@@ -20339,7 +20339,7 @@
         <v>0</v>
       </c>
       <c r="Q378">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="379" spans="1:18">
@@ -20389,7 +20389,7 @@
         <v>1</v>
       </c>
       <c r="Q379">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="R379">
         <v>15</v>
@@ -20442,7 +20442,7 @@
         <v>0</v>
       </c>
       <c r="Q380">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="381" spans="1:18">
@@ -20492,7 +20492,7 @@
         <v>1</v>
       </c>
       <c r="Q381">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="R381">
         <v>11</v>
@@ -20542,7 +20542,7 @@
         <v>0</v>
       </c>
       <c r="Q382">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="383" spans="1:18">
@@ -20589,7 +20589,7 @@
         <v>0</v>
       </c>
       <c r="Q383">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="384" spans="1:18">
@@ -20636,7 +20636,7 @@
         <v>0</v>
       </c>
       <c r="Q384">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="385" spans="1:18">
@@ -20686,7 +20686,7 @@
         <v>1</v>
       </c>
       <c r="Q385">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="R385">
         <v>0</v>
@@ -20739,7 +20739,7 @@
         <v>0</v>
       </c>
       <c r="Q386">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="387" spans="1:18">
@@ -20786,7 +20786,7 @@
         <v>0</v>
       </c>
       <c r="Q387">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="388" spans="1:18">
@@ -20833,7 +20833,7 @@
         <v>0</v>
       </c>
       <c r="Q388">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="389" spans="1:18">
@@ -20880,7 +20880,7 @@
         <v>0</v>
       </c>
       <c r="Q389">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="390" spans="1:18">
@@ -20930,7 +20930,7 @@
         <v>1</v>
       </c>
       <c r="Q390">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="R390">
         <v>8</v>
@@ -20980,7 +20980,7 @@
         <v>0</v>
       </c>
       <c r="Q391">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="392" spans="1:18">
@@ -21027,7 +21027,7 @@
         <v>0</v>
       </c>
       <c r="Q392">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="393" spans="1:18">
@@ -21074,7 +21074,7 @@
         <v>1</v>
       </c>
       <c r="Q393">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="R393">
         <v>23</v>
@@ -21127,7 +21127,7 @@
         <v>1</v>
       </c>
       <c r="Q394">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="R394">
         <v>14</v>
@@ -21177,7 +21177,7 @@
         <v>0</v>
       </c>
       <c r="Q395">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="396" spans="1:18">
@@ -21227,7 +21227,7 @@
         <v>1</v>
       </c>
       <c r="Q396">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R396">
         <v>22</v>
@@ -21280,7 +21280,7 @@
         <v>1</v>
       </c>
       <c r="Q397">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R397">
         <v>22</v>
@@ -21333,7 +21333,7 @@
         <v>0</v>
       </c>
       <c r="Q398">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="399" spans="1:18">
@@ -21383,7 +21383,7 @@
         <v>1</v>
       </c>
       <c r="Q399">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="R399">
         <v>7</v>
@@ -21433,7 +21433,7 @@
         <v>0</v>
       </c>
       <c r="Q400">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="401" spans="1:18">
@@ -21483,7 +21483,7 @@
         <v>1</v>
       </c>
       <c r="Q401">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="R401">
         <v>18</v>
@@ -21533,7 +21533,7 @@
         <v>0</v>
       </c>
       <c r="Q402">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="403" spans="1:18">
@@ -21583,7 +21583,7 @@
         <v>1</v>
       </c>
       <c r="Q403">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="R403">
         <v>23</v>
@@ -21636,7 +21636,7 @@
         <v>0</v>
       </c>
       <c r="Q404">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="405" spans="1:18">
@@ -21683,7 +21683,7 @@
         <v>0</v>
       </c>
       <c r="Q405">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="406" spans="1:18">
@@ -21730,7 +21730,7 @@
         <v>0</v>
       </c>
       <c r="Q406">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="407" spans="1:18">
@@ -21780,7 +21780,7 @@
         <v>1</v>
       </c>
       <c r="Q407">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="R407">
         <v>16</v>
@@ -21827,7 +21827,7 @@
         <v>0</v>
       </c>
       <c r="Q408">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="409" spans="1:18">
@@ -21877,7 +21877,7 @@
         <v>1</v>
       </c>
       <c r="Q409">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="R409">
         <v>15</v>
@@ -21927,7 +21927,7 @@
         <v>0</v>
       </c>
       <c r="Q410">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="411" spans="1:18">
@@ -21974,7 +21974,7 @@
         <v>0</v>
       </c>
       <c r="Q411">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="412" spans="1:18">
@@ -22021,7 +22021,7 @@
         <v>0</v>
       </c>
       <c r="Q412">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="413" spans="1:18">
@@ -22068,7 +22068,7 @@
         <v>0</v>
       </c>
       <c r="Q413">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="414" spans="1:18">
@@ -22118,7 +22118,7 @@
         <v>1</v>
       </c>
       <c r="Q414">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="R414">
         <v>1</v>
@@ -22171,7 +22171,7 @@
         <v>1</v>
       </c>
       <c r="Q415">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="R415">
         <v>18</v>
@@ -22221,7 +22221,7 @@
         <v>0</v>
       </c>
       <c r="Q416">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="417" spans="1:18">
@@ -22268,7 +22268,7 @@
         <v>0</v>
       </c>
       <c r="Q417">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="418" spans="1:18">
@@ -22315,7 +22315,7 @@
         <v>0</v>
       </c>
       <c r="Q418">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="419" spans="1:18">
@@ -22365,7 +22365,7 @@
         <v>0</v>
       </c>
       <c r="Q419">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="420" spans="1:18">
@@ -22415,7 +22415,7 @@
         <v>1</v>
       </c>
       <c r="Q420">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="R420">
         <v>23</v>
@@ -22468,7 +22468,7 @@
         <v>0</v>
       </c>
       <c r="Q421">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="422" spans="1:18">
@@ -22515,7 +22515,7 @@
         <v>0</v>
       </c>
       <c r="Q422">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="423" spans="1:18">
@@ -22562,7 +22562,7 @@
         <v>0</v>
       </c>
       <c r="Q423">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="424" spans="1:18">
@@ -22612,7 +22612,7 @@
         <v>1</v>
       </c>
       <c r="Q424">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="R424">
         <v>22</v>
@@ -22662,7 +22662,7 @@
         <v>0</v>
       </c>
       <c r="Q425">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="426" spans="1:18">
@@ -22709,7 +22709,7 @@
         <v>0</v>
       </c>
       <c r="Q426">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="427" spans="1:18">
@@ -22759,7 +22759,7 @@
         <v>0</v>
       </c>
       <c r="Q427">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="428" spans="1:18">
@@ -22809,7 +22809,7 @@
         <v>1</v>
       </c>
       <c r="Q428">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="R428">
         <v>21</v>
@@ -22862,7 +22862,7 @@
         <v>0</v>
       </c>
       <c r="Q429">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="430" spans="1:18">
@@ -22909,7 +22909,7 @@
         <v>0</v>
       </c>
       <c r="Q430">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="431" spans="1:18">
@@ -22956,7 +22956,7 @@
         <v>0</v>
       </c>
       <c r="Q431">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="432" spans="1:18">
@@ -23003,7 +23003,7 @@
         <v>0</v>
       </c>
       <c r="Q432">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="433" spans="1:18">
@@ -23053,7 +23053,7 @@
         <v>1</v>
       </c>
       <c r="Q433">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="R433">
         <v>17</v>
@@ -23100,7 +23100,7 @@
         <v>0</v>
       </c>
       <c r="Q434">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="435" spans="1:18">
@@ -23147,7 +23147,7 @@
         <v>0</v>
       </c>
       <c r="Q435">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="436" spans="1:18">
@@ -23194,7 +23194,7 @@
         <v>0</v>
       </c>
       <c r="Q436">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="437" spans="1:18">
@@ -23241,7 +23241,7 @@
         <v>0</v>
       </c>
       <c r="Q437">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="438" spans="1:18">
@@ -23291,7 +23291,7 @@
         <v>0</v>
       </c>
       <c r="Q438">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="439" spans="1:18">
@@ -23341,7 +23341,7 @@
         <v>1</v>
       </c>
       <c r="Q439">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="R439">
         <v>28</v>
@@ -23394,7 +23394,7 @@
         <v>1</v>
       </c>
       <c r="Q440">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="R440">
         <v>16</v>
@@ -23444,7 +23444,7 @@
         <v>0</v>
       </c>
       <c r="Q441">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="442" spans="1:18">
@@ -23494,7 +23494,7 @@
         <v>1</v>
       </c>
       <c r="Q442">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="R442">
         <v>16</v>
@@ -23547,7 +23547,7 @@
         <v>0</v>
       </c>
       <c r="Q443">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="444" spans="1:18">
@@ -23594,7 +23594,7 @@
         <v>0</v>
       </c>
       <c r="Q444">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="445" spans="1:18">
@@ -23641,7 +23641,7 @@
         <v>0</v>
       </c>
       <c r="Q445">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="446" spans="1:18">
@@ -23688,7 +23688,7 @@
         <v>0</v>
       </c>
       <c r="Q446">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="447" spans="1:18">
@@ -23738,7 +23738,7 @@
         <v>1</v>
       </c>
       <c r="Q447">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="R447">
         <v>4</v>
@@ -23791,7 +23791,7 @@
         <v>0</v>
       </c>
       <c r="Q448">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="449" spans="1:18">
@@ -23838,7 +23838,7 @@
         <v>0</v>
       </c>
       <c r="Q449">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="450" spans="1:18">
@@ -23885,7 +23885,7 @@
         <v>0</v>
       </c>
       <c r="Q450">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="451" spans="1:18">
@@ -23932,7 +23932,7 @@
         <v>0</v>
       </c>
       <c r="Q451">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="452" spans="1:18">
@@ -23979,7 +23979,7 @@
         <v>0</v>
       </c>
       <c r="Q452">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="453" spans="1:18">
@@ -24026,7 +24026,7 @@
         <v>0</v>
       </c>
       <c r="Q453">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="454" spans="1:18">
@@ -24076,7 +24076,7 @@
         <v>1</v>
       </c>
       <c r="Q454">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="R454">
         <v>13</v>
@@ -24129,7 +24129,7 @@
         <v>1</v>
       </c>
       <c r="Q455">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="R455">
         <v>25</v>
@@ -24179,7 +24179,7 @@
         <v>0</v>
       </c>
       <c r="Q456">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="457" spans="1:18">
@@ -24229,7 +24229,7 @@
         <v>0</v>
       </c>
       <c r="Q457">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="458" spans="1:18">
@@ -24279,7 +24279,7 @@
         <v>1</v>
       </c>
       <c r="Q458">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="R458">
         <v>19</v>
@@ -24332,7 +24332,7 @@
         <v>0</v>
       </c>
       <c r="Q459">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="460" spans="1:18">
@@ -24379,7 +24379,7 @@
         <v>0</v>
       </c>
       <c r="Q460">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="461" spans="1:18">
@@ -24426,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="Q461">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="462" spans="1:18">
@@ -24473,7 +24473,7 @@
         <v>0</v>
       </c>
       <c r="Q462">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="463" spans="1:18">
@@ -24523,7 +24523,7 @@
         <v>1</v>
       </c>
       <c r="Q463">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="R463">
         <v>16</v>
@@ -24570,7 +24570,7 @@
         <v>0</v>
       </c>
       <c r="Q464">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="465" spans="1:18">
@@ -24620,7 +24620,7 @@
         <v>1</v>
       </c>
       <c r="Q465">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="R465">
         <v>5</v>
@@ -24670,7 +24670,7 @@
         <v>0</v>
       </c>
       <c r="Q466">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="467" spans="1:18">
@@ -24717,7 +24717,7 @@
         <v>0</v>
       </c>
       <c r="Q467">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="468" spans="1:18">
@@ -24764,7 +24764,7 @@
         <v>0</v>
       </c>
       <c r="Q468">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="469" spans="1:18">
@@ -24814,7 +24814,7 @@
         <v>1</v>
       </c>
       <c r="Q469">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="R469">
         <v>8</v>
@@ -24864,7 +24864,7 @@
         <v>0</v>
       </c>
       <c r="Q470">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="471" spans="1:18">
@@ -24911,7 +24911,7 @@
         <v>0</v>
       </c>
       <c r="Q471">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="472" spans="1:18">
@@ -24958,7 +24958,7 @@
         <v>0</v>
       </c>
       <c r="Q472">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="473" spans="1:18">
@@ -25005,7 +25005,7 @@
         <v>0</v>
       </c>
       <c r="Q473">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="474" spans="1:18">
@@ -25055,7 +25055,7 @@
         <v>1</v>
       </c>
       <c r="Q474">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="R474">
         <v>0</v>
@@ -25105,7 +25105,7 @@
         <v>0</v>
       </c>
       <c r="Q475">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="476" spans="1:18">
@@ -25152,7 +25152,7 @@
         <v>0</v>
       </c>
       <c r="Q476">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="477" spans="1:18">
@@ -25199,7 +25199,7 @@
         <v>0</v>
       </c>
       <c r="Q477">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="478" spans="1:18">
@@ -25249,7 +25249,7 @@
         <v>0</v>
       </c>
       <c r="Q478">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="479" spans="1:18">
@@ -25299,7 +25299,7 @@
         <v>1</v>
       </c>
       <c r="Q479">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="R479">
         <v>23</v>
@@ -25352,7 +25352,7 @@
         <v>0</v>
       </c>
       <c r="Q480">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="481" spans="1:18">
@@ -25399,7 +25399,7 @@
         <v>0</v>
       </c>
       <c r="Q481">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="482" spans="1:18">
@@ -25446,7 +25446,7 @@
         <v>0</v>
       </c>
       <c r="Q482">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="483" spans="1:18">
@@ -25493,7 +25493,7 @@
         <v>0</v>
       </c>
       <c r="Q483">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="484" spans="1:18">
@@ -25540,7 +25540,7 @@
         <v>0</v>
       </c>
       <c r="Q484">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="485" spans="1:18">
@@ -25587,7 +25587,7 @@
         <v>0</v>
       </c>
       <c r="Q485">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="486" spans="1:18">
@@ -25634,7 +25634,7 @@
         <v>0</v>
       </c>
       <c r="Q486">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="487" spans="1:18">
@@ -25681,7 +25681,7 @@
         <v>0</v>
       </c>
       <c r="Q487">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="488" spans="1:18">
@@ -25731,7 +25731,7 @@
         <v>1</v>
       </c>
       <c r="Q488">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="R488">
         <v>17</v>
@@ -25781,7 +25781,7 @@
         <v>0</v>
       </c>
       <c r="Q489">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="490" spans="1:18">
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="Q490">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="491" spans="1:18">
@@ -25881,7 +25881,7 @@
         <v>1</v>
       </c>
       <c r="Q491">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="R491">
         <v>16</v>
@@ -25928,7 +25928,7 @@
         <v>0</v>
       </c>
       <c r="Q492">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="493" spans="1:18">
@@ -25975,7 +25975,7 @@
         <v>0</v>
       </c>
       <c r="Q493">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="494" spans="1:18">
@@ -26022,7 +26022,7 @@
         <v>0</v>
       </c>
       <c r="Q494">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="495" spans="1:18">
@@ -26069,7 +26069,7 @@
         <v>0</v>
       </c>
       <c r="Q495">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="496" spans="1:18">
@@ -26119,7 +26119,7 @@
         <v>1</v>
       </c>
       <c r="Q496">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="R496">
         <v>4</v>
@@ -26166,7 +26166,7 @@
         <v>0</v>
       </c>
       <c r="Q497">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="498" spans="1:18">
@@ -26216,7 +26216,7 @@
         <v>1</v>
       </c>
       <c r="Q498">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="R498">
         <v>5</v>
@@ -26263,7 +26263,7 @@
         <v>0</v>
       </c>
       <c r="Q499">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="500" spans="1:18">
@@ -26310,7 +26310,7 @@
         <v>0</v>
       </c>
       <c r="Q500">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="501" spans="1:18">
@@ -26357,7 +26357,7 @@
         <v>0</v>
       </c>
       <c r="Q501">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="502" spans="1:18">
@@ -26404,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="Q502">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="503" spans="1:18">
@@ -26454,7 +26454,7 @@
         <v>1</v>
       </c>
       <c r="Q503">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="R503">
         <v>1</v>
@@ -26504,7 +26504,7 @@
         <v>0</v>
       </c>
       <c r="Q504">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="505" spans="1:18">
@@ -26554,7 +26554,7 @@
         <v>0</v>
       </c>
       <c r="Q505">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="506" spans="1:18">
@@ -26604,7 +26604,7 @@
         <v>1</v>
       </c>
       <c r="Q506">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="R506">
         <v>11</v>
@@ -26654,7 +26654,7 @@
         <v>0</v>
       </c>
       <c r="Q507">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="508" spans="1:18">
@@ -26701,7 +26701,7 @@
         <v>0</v>
       </c>
       <c r="Q508">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="509" spans="1:18">
@@ -26748,7 +26748,7 @@
         <v>0</v>
       </c>
       <c r="Q509">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="510" spans="1:18">
@@ -26798,7 +26798,7 @@
         <v>1</v>
       </c>
       <c r="Q510">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="R510">
         <v>3</v>
@@ -26842,10 +26842,10 @@
         <v>1</v>
       </c>
       <c r="P511" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q511">
-        <v>171</v>
+        <v>163</v>
       </c>
     </row>
     <row r="512" spans="1:18">
@@ -26886,7 +26886,7 @@
         <v>0</v>
       </c>
       <c r="Q512">
-        <v>171</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
